--- a/data/statistical/filled_NaN_xlsx/广东省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/广东省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>46.9</v>
       </c>
       <c r="E2">
-        <v>3348.660716071725</v>
+        <v>3348.660715341568</v>
       </c>
       <c r="F2">
         <v>8988.48</v>
@@ -609,85 +609,85 @@
         <v>8.210000000000001</v>
       </c>
       <c r="H2">
-        <v>60.34537409765471</v>
+        <v>60.34537409737095</v>
       </c>
       <c r="I2">
-        <v>3.157533539761062</v>
+        <v>3.157533539695578</v>
       </c>
       <c r="J2">
-        <v>68.1926806718111</v>
+        <v>68.19268072769046</v>
       </c>
       <c r="K2">
-        <v>34.21683617396047</v>
+        <v>34.21683617285453</v>
       </c>
       <c r="L2">
-        <v>0.638045360085016</v>
+        <v>0.638045360079559</v>
       </c>
       <c r="M2">
-        <v>77.44771806825884</v>
+        <v>77.44771806139033</v>
       </c>
       <c r="N2">
-        <v>308.4024509782903</v>
+        <v>308.4024509789888</v>
       </c>
       <c r="O2">
-        <v>26.09911764645949</v>
+        <v>26.09911763807759</v>
       </c>
       <c r="P2">
-        <v>2115.089372236212</v>
+        <v>2209.068839906798</v>
       </c>
       <c r="Q2">
-        <v>76.2723774521728</v>
+        <v>76.27237745106686</v>
       </c>
       <c r="R2">
-        <v>17.62742517329752</v>
+        <v>17.62742517213337</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>-69478.43060493469</v>
       </c>
       <c r="T2">
-        <v>257290.4211128967</v>
+        <v>103724.7618686507</v>
       </c>
       <c r="U2">
-        <v>0.6423425066962867</v>
+        <v>1.315682055926176</v>
       </c>
       <c r="V2">
-        <v>15.63614036119543</v>
+        <v>15.63614035327919</v>
       </c>
       <c r="W2">
-        <v>39.26131868114317</v>
+        <v>39.26131868147058</v>
       </c>
       <c r="X2">
-        <v>43898.90440320969</v>
+        <v>43898.90441274643</v>
       </c>
       <c r="Y2">
-        <v>49.39689560153056</v>
+        <v>49.39689559960971</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-135365.1617918015</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>52.07391062604988</v>
       </c>
       <c r="AB2">
-        <v>7874158.653198242</v>
+        <v>107330.9089488983</v>
       </c>
       <c r="AC2">
-        <v>2213092.787902832</v>
+        <v>337484.1936340332</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>465.9965040758252</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1488.177076845351</v>
       </c>
       <c r="AF2">
-        <v>12204.04632487893</v>
+        <v>-490.8224805394781</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2996.919191969028</v>
       </c>
       <c r="AH2">
-        <v>1061026.70791626</v>
+        <v>93884.04496645927</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>8.35</v>
       </c>
       <c r="H3">
-        <v>60.90026444843534</v>
+        <v>60.90026444818068</v>
       </c>
       <c r="I3">
         <v>3.6</v>
       </c>
       <c r="J3">
-        <v>64.218445725739</v>
+        <v>64.21844578534365</v>
       </c>
       <c r="K3">
         <v>30.8621716870816</v>
@@ -743,13 +743,13 @@
         <v>82.20999999999999</v>
       </c>
       <c r="R3">
-        <v>14.54926470015198</v>
+        <v>14.54926469852217</v>
       </c>
       <c r="S3">
         <v>232218</v>
       </c>
       <c r="T3">
-        <v>234000.9100914478</v>
+        <v>166594.4616449517</v>
       </c>
       <c r="U3">
         <v>0.91</v>
@@ -764,34 +764,34 @@
         <v>27062</v>
       </c>
       <c r="Y3">
-        <v>50.43127747025574</v>
+        <v>50.43127746862592</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-94169.17159366608</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>48.74183217294937</v>
       </c>
       <c r="AB3">
-        <v>7012988.821960449</v>
+        <v>98424.67153072357</v>
       </c>
       <c r="AC3">
-        <v>1821604.262084961</v>
+        <v>292808.0261325836</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>393.0174830183387</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1377.602362621391</v>
       </c>
       <c r="AF3">
-        <v>12321.47394782305</v>
+        <v>2993.553426540991</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2268.462821125258</v>
       </c>
       <c r="AH3">
-        <v>811824.2379150391</v>
+        <v>87919.25859767199</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>8.01</v>
       </c>
       <c r="H4">
-        <v>61.47306372594176</v>
+        <v>61.47306372572348</v>
       </c>
       <c r="I4">
         <v>2.7</v>
       </c>
       <c r="J4">
-        <v>74.17443326860666</v>
+        <v>74.17443332076073</v>
       </c>
       <c r="K4">
         <v>28.9430690891203</v>
@@ -847,7 +847,7 @@
         <v>83.88</v>
       </c>
       <c r="R4">
-        <v>11.96308823104482</v>
+        <v>11.96308822894935</v>
       </c>
       <c r="S4">
         <v>138538.9</v>
@@ -868,34 +868,34 @@
         <v>8103</v>
       </c>
       <c r="Y4">
-        <v>51.56954670153209</v>
+        <v>51.56954670022242</v>
       </c>
       <c r="Z4">
         <v>39961</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>48.47874967527731</v>
       </c>
       <c r="AB4">
-        <v>6295485.100463867</v>
+        <v>90752.05024719238</v>
       </c>
       <c r="AC4">
-        <v>1612246.484130859</v>
+        <v>252736.1430034637</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>336.0114889368415</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>949.002509332672</v>
       </c>
       <c r="AF4">
-        <v>12361.5015206933</v>
+        <v>1924.226041829302</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2260.928396373954</v>
       </c>
       <c r="AH4">
-        <v>599652.8392791748</v>
+        <v>82101.49116033316</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>98.0606432929635</v>
+        <v>98.06064333766699</v>
       </c>
       <c r="K5">
         <v>24.0150779988979</v>
@@ -972,34 +972,34 @@
         <v>13305</v>
       </c>
       <c r="Y5">
-        <v>52.81170329547604</v>
+        <v>52.81170329434099</v>
       </c>
       <c r="Z5">
         <v>18337</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>62.71364566459342</v>
       </c>
       <c r="AB5">
-        <v>5721647.488586426</v>
+        <v>84313.04509830475</v>
       </c>
       <c r="AC5">
-        <v>1585019.453918457</v>
+        <v>217268.5442352295</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>294.9785218313336</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1048.471694354994</v>
       </c>
       <c r="AF5">
-        <v>12324.12904366851</v>
+        <v>-396.1377394720895</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1537.453008682046</v>
       </c>
       <c r="AH5">
-        <v>424512.5119628906</v>
+        <v>76430.74265438318</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>34471</v>
       </c>
       <c r="Y6">
-        <v>54.15774725191295</v>
+        <v>54.15774725103984</v>
       </c>
       <c r="Z6">
         <v>7305</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>69.39092964297016</v>
       </c>
       <c r="AB6">
-        <v>5291475.98614502</v>
+        <v>79107.65608310699</v>
       </c>
       <c r="AC6">
-        <v>1739923.171691895</v>
+        <v>186405.229839325</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>269.9185817092657</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1524.5310084188</v>
       </c>
       <c r="AF6">
-        <v>12209.35651656985</v>
+        <v>714.6500882968929</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1572.315637705162</v>
       </c>
       <c r="AH6">
-        <v>286403.2559967041</v>
+        <v>70907.01307994127</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>5819</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>46.88132748251707</v>
       </c>
       <c r="AB7">
-        <v>5004970.593505859</v>
+        <v>75135.88320207596</v>
       </c>
       <c r="AC7">
-        <v>2076957.637390137</v>
+        <v>160146.1998081207</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>260.8316685631871</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>667.169817585992</v>
       </c>
       <c r="AF7">
-        <v>12017.18393954635</v>
+        <v>3007.535717522512</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1052.289678911302</v>
       </c>
       <c r="AH7">
-        <v>185325.0713348389</v>
+        <v>65530.30243700743</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>9387</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>68.10106386043</v>
       </c>
       <c r="AB8">
-        <v>4862131.31048584</v>
+        <v>72397.72645568848</v>
       </c>
       <c r="AC8">
-        <v>2596122.850769043</v>
+        <v>138491.4541416168</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>267.7177824005485</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>2498.891956418144</v>
       </c>
       <c r="AF8">
-        <v>11747.61131247878</v>
+        <v>496.4765677297229</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>4032.519334399899</v>
       </c>
       <c r="AH8">
-        <v>121277.9580383301</v>
+        <v>60300.61072540283</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>19952</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>72.10927209892721</v>
       </c>
       <c r="AB9">
-        <v>4862958.136962891</v>
+        <v>70893.18584394455</v>
       </c>
       <c r="AC9">
-        <v>3297418.812194824</v>
+        <v>121440.9928474426</v>
       </c>
       <c r="AD9">
-        <v>11439.12063121796</v>
+        <v>290.5769232101738</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>-177.8281935595012</v>
       </c>
       <c r="AF9">
-        <v>11400.63863548636</v>
+        <v>3160.581542579108</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2392.616473828419</v>
       </c>
       <c r="AH9">
-        <v>94261.91604614258</v>
+        <v>55217.93794518709</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>95144</v>
       </c>
       <c r="AA10">
-        <v>43.56818160414696</v>
+        <v>59.24406922889102</v>
       </c>
       <c r="AB10">
-        <v>5007451.073181152</v>
+        <v>70622.2613658905</v>
       </c>
       <c r="AC10">
-        <v>4180845.52130127</v>
+        <v>108994.8159179688</v>
       </c>
       <c r="AD10">
-        <v>25161.20454597473</v>
+        <v>329.4090909995139</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>-446.3119723853339</v>
       </c>
       <c r="AF10">
-        <v>10976.26590850949</v>
+        <v>1572.387341311856</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1011.570636893915</v>
       </c>
       <c r="AH10">
-        <v>104276.9454040527</v>
+        <v>50282.28409647942</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>125476</v>
       </c>
       <c r="AA11">
-        <v>1111</v>
+        <v>51</v>
       </c>
       <c r="AB11">
-        <v>4809951</v>
+        <v>63664</v>
       </c>
       <c r="AC11">
-        <v>5812831</v>
+        <v>82807</v>
       </c>
       <c r="AD11">
-        <v>45172</v>
+        <v>265</v>
       </c>
       <c r="AE11">
-        <v>43284</v>
+        <v>663</v>
       </c>
       <c r="AF11">
-        <v>12117</v>
+        <v>73</v>
       </c>
       <c r="AG11">
-        <v>21818</v>
+        <v>2801</v>
       </c>
       <c r="AH11">
-        <v>196631</v>
+        <v>30258</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>107512</v>
       </c>
       <c r="AA12">
-        <v>1487</v>
+        <v>88</v>
       </c>
       <c r="AB12">
-        <v>5760005</v>
+        <v>72789</v>
       </c>
       <c r="AC12">
-        <v>6502335</v>
+        <v>99521</v>
       </c>
       <c r="AD12">
-        <v>61400</v>
+        <v>559</v>
       </c>
       <c r="AE12">
-        <v>87246</v>
+        <v>4449</v>
       </c>
       <c r="AF12">
-        <v>6351</v>
+        <v>1346</v>
       </c>
       <c r="AG12">
-        <v>43507</v>
+        <v>3216</v>
       </c>
       <c r="AH12">
-        <v>247986</v>
+        <v>46649</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>139058</v>
       </c>
       <c r="AA13">
-        <v>1103</v>
+        <v>78</v>
       </c>
       <c r="AB13">
-        <v>6612820</v>
+        <v>72387</v>
       </c>
       <c r="AC13">
-        <v>7594487</v>
+        <v>108333</v>
       </c>
       <c r="AD13">
-        <v>70733</v>
+        <v>606</v>
       </c>
       <c r="AE13">
-        <v>64171</v>
+        <v>627</v>
       </c>
       <c r="AF13">
-        <v>10190</v>
+        <v>3700</v>
       </c>
       <c r="AG13">
-        <v>20512</v>
+        <v>4192</v>
       </c>
       <c r="AH13">
-        <v>819897</v>
+        <v>60788</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>151473</v>
       </c>
       <c r="AA14">
-        <v>1263</v>
+        <v>54</v>
       </c>
       <c r="AB14">
-        <v>7256155</v>
+        <v>92244</v>
       </c>
       <c r="AC14">
-        <v>9293468</v>
+        <v>133254</v>
       </c>
       <c r="AD14">
-        <v>89203</v>
+        <v>596</v>
       </c>
       <c r="AE14">
-        <v>113826</v>
+        <v>100</v>
       </c>
       <c r="AF14">
-        <v>10163</v>
+        <v>916</v>
       </c>
       <c r="AG14">
-        <v>56842</v>
+        <v>474</v>
       </c>
       <c r="AH14">
-        <v>250356</v>
+        <v>11461</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>401331</v>
       </c>
       <c r="AA15">
-        <v>2045</v>
+        <v>55</v>
       </c>
       <c r="AB15">
-        <v>8271917</v>
+        <v>93606</v>
       </c>
       <c r="AC15">
-        <v>10707322</v>
+        <v>109691</v>
       </c>
       <c r="AD15">
-        <v>125471</v>
+        <v>769</v>
       </c>
       <c r="AE15">
-        <v>357746</v>
+        <v>47</v>
       </c>
       <c r="AF15">
-        <v>9039</v>
+        <v>4687</v>
       </c>
       <c r="AG15">
-        <v>379754</v>
+        <v>6250</v>
       </c>
       <c r="AH15">
-        <v>373491</v>
+        <v>43751</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>305404</v>
       </c>
       <c r="AA16">
-        <v>3735</v>
+        <v>57</v>
       </c>
       <c r="AB16">
-        <v>9201115</v>
+        <v>117146</v>
       </c>
       <c r="AC16">
-        <v>13066861</v>
+        <v>125760</v>
       </c>
       <c r="AD16">
-        <v>164338</v>
+        <v>950</v>
       </c>
       <c r="AE16">
-        <v>689384</v>
+        <v>526.549171737925</v>
       </c>
       <c r="AF16">
-        <v>4221</v>
+        <v>54</v>
       </c>
       <c r="AG16">
-        <v>554609</v>
+        <v>1062</v>
       </c>
       <c r="AH16">
-        <v>498221</v>
+        <v>29386</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>1440.6867</v>
       </c>
       <c r="K17">
-        <v>12.51076730736531</v>
+        <v>12.51076730847126</v>
       </c>
       <c r="L17">
-        <v>0.4108396957390141</v>
+        <v>0.4108396957444711</v>
       </c>
       <c r="M17">
         <v>2.08777124812009</v>
@@ -2226,28 +2226,28 @@
         <v>270588</v>
       </c>
       <c r="AA17">
-        <v>5316</v>
+        <v>51</v>
       </c>
       <c r="AB17">
-        <v>9837798.6</v>
+        <v>118036.4</v>
       </c>
       <c r="AC17">
-        <v>15366492.7</v>
+        <v>168123.6</v>
       </c>
       <c r="AD17">
-        <v>194118</v>
+        <v>1046</v>
       </c>
       <c r="AE17">
-        <v>293797</v>
+        <v>125.299634977318</v>
       </c>
       <c r="AF17">
-        <v>3331</v>
+        <v>56</v>
       </c>
       <c r="AG17">
-        <v>387728</v>
+        <v>50</v>
       </c>
       <c r="AH17">
-        <v>987945</v>
+        <v>10933</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>1764.4</v>
       </c>
       <c r="K18">
-        <v>13.11270419502398</v>
+        <v>13.11270419636276</v>
       </c>
       <c r="L18">
-        <v>0.409451178791187</v>
+        <v>0.4094511787980082</v>
       </c>
       <c r="M18">
         <v>1.55204010124821</v>
@@ -2312,13 +2312,13 @@
         <v>235765</v>
       </c>
       <c r="U18">
-        <v>0.4204799909040305</v>
+        <v>1.216390775761807</v>
       </c>
       <c r="V18">
         <v>94.8</v>
       </c>
       <c r="W18">
-        <v>102.5887472530012</v>
+        <v>102.5887472527611</v>
       </c>
       <c r="X18">
         <v>78358</v>
@@ -2330,28 +2330,28 @@
         <v>270462</v>
       </c>
       <c r="AA18">
-        <v>5823</v>
+        <v>55</v>
       </c>
       <c r="AB18">
-        <v>11247028.3</v>
+        <v>96750.7</v>
       </c>
       <c r="AC18">
-        <v>17862113.4</v>
+        <v>161834.2</v>
       </c>
       <c r="AD18">
-        <v>206134</v>
+        <v>1291</v>
       </c>
       <c r="AE18">
-        <v>968778.7</v>
+        <v>1354.52678431375</v>
       </c>
       <c r="AF18">
-        <v>8107.8</v>
+        <v>312.127287812673</v>
       </c>
       <c r="AG18">
-        <v>1422489.4</v>
+        <v>3369.4</v>
       </c>
       <c r="AH18">
-        <v>1904253.3</v>
+        <v>10682.6</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>55.5</v>
       </c>
       <c r="E19">
-        <v>30861.66071408987</v>
+        <v>30861.66071514785</v>
       </c>
       <c r="F19">
         <v>34424.1216</v>
@@ -2386,10 +2386,10 @@
         <v>1870</v>
       </c>
       <c r="K19">
-        <v>13.97076710086549</v>
+        <v>13.97076710232068</v>
       </c>
       <c r="L19">
-        <v>0.4097824777622918</v>
+        <v>0.4097824777700225</v>
       </c>
       <c r="M19">
         <v>1.11841555953702</v>
@@ -2413,16 +2413,16 @@
         <v>1343974</v>
       </c>
       <c r="T19">
-        <v>174027.5584358921</v>
+        <v>229749.7434011999</v>
       </c>
       <c r="U19">
-        <v>0.808745699776283</v>
+        <v>-0.00928687416305418</v>
       </c>
       <c r="V19">
         <v>96.7</v>
       </c>
       <c r="W19">
-        <v>106.3805989013927</v>
+        <v>106.3805989011307</v>
       </c>
       <c r="X19">
         <v>109340</v>
@@ -2434,28 +2434,28 @@
         <v>244726</v>
       </c>
       <c r="AA19">
-        <v>6848</v>
+        <v>46</v>
       </c>
       <c r="AB19">
-        <v>12040269.7</v>
+        <v>79721.60000000001</v>
       </c>
       <c r="AC19">
-        <v>21652514.6</v>
+        <v>197772.7</v>
       </c>
       <c r="AD19">
-        <v>230537</v>
+        <v>1295</v>
       </c>
       <c r="AE19">
-        <v>756215.8</v>
+        <v>150</v>
       </c>
       <c r="AF19">
-        <v>5876.1</v>
+        <v>2787.33998633522</v>
       </c>
       <c r="AG19">
-        <v>2253307.1</v>
+        <v>4344.2</v>
       </c>
       <c r="AH19">
-        <v>2169100</v>
+        <v>4746.1</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>56.5</v>
       </c>
       <c r="E20">
-        <v>32007.93802517653</v>
+        <v>32007.93802639842</v>
       </c>
       <c r="F20">
         <v>33511.2973</v>
@@ -2490,10 +2490,10 @@
         <v>2199.276</v>
       </c>
       <c r="K20">
-        <v>15.08495602488983</v>
+        <v>15.08495602657786</v>
       </c>
       <c r="L20">
-        <v>0.4118335926509644</v>
+        <v>0.4118335926591499</v>
       </c>
       <c r="M20">
         <v>1.05501993753394</v>
@@ -2520,13 +2520,13 @@
         <v>131838</v>
       </c>
       <c r="U20">
-        <v>0.922214932535622</v>
+        <v>0.6345008100084775</v>
       </c>
       <c r="V20">
         <v>97.7</v>
       </c>
       <c r="W20">
-        <v>110.1529078865569</v>
+        <v>110.152907886295</v>
       </c>
       <c r="X20">
         <v>128235</v>
@@ -2538,28 +2538,28 @@
         <v>264967</v>
       </c>
       <c r="AA20">
-        <v>7843</v>
+        <v>60</v>
       </c>
       <c r="AB20">
-        <v>13881900</v>
+        <v>124148</v>
       </c>
       <c r="AC20">
-        <v>23480625</v>
+        <v>198220</v>
       </c>
       <c r="AD20">
-        <v>271200</v>
+        <v>1489</v>
       </c>
       <c r="AE20">
-        <v>1540640</v>
+        <v>74</v>
       </c>
       <c r="AF20">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="AG20">
-        <v>1880786</v>
+        <v>4767</v>
       </c>
       <c r="AH20">
-        <v>2608648</v>
+        <v>7546</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>55.5978</v>
       </c>
       <c r="E21">
-        <v>33101.75595255196</v>
+        <v>33101.75595393777</v>
       </c>
       <c r="F21">
         <v>36621.1</v>
@@ -2594,25 +2594,25 @@
         <v>2315.6591</v>
       </c>
       <c r="K21">
-        <v>16.45527096715523</v>
+        <v>16.45527096901787</v>
       </c>
       <c r="L21">
-        <v>0.4156045234576595</v>
+        <v>0.415604523465845</v>
       </c>
       <c r="M21">
         <v>0.78712115856387</v>
       </c>
       <c r="N21">
-        <v>262.6985294122715</v>
+        <v>262.6985294108745</v>
       </c>
       <c r="O21">
-        <v>113.9346078340895</v>
+        <v>113.9346078415401</v>
       </c>
       <c r="P21">
         <v>3926.3</v>
       </c>
       <c r="Q21">
-        <v>101.2119852940668</v>
+        <v>101.2119852954929</v>
       </c>
       <c r="R21">
         <v>43.5</v>
@@ -2621,49 +2621,49 @@
         <v>1441584</v>
       </c>
       <c r="T21">
-        <v>147502.0563387999</v>
+        <v>254171.8190942725</v>
       </c>
       <c r="U21">
-        <v>0.6728408932742724</v>
+        <v>0.3434357118990086</v>
       </c>
       <c r="V21">
         <v>98.40000000000001</v>
       </c>
       <c r="W21">
-        <v>113.9056742085086</v>
+        <v>113.9056742082321</v>
       </c>
       <c r="X21">
-        <v>147189.3946070671</v>
+        <v>147189.3945951462</v>
       </c>
       <c r="Y21">
-        <v>86.81489010836231</v>
+        <v>86.8148901083332</v>
       </c>
       <c r="Z21">
         <v>58234</v>
       </c>
       <c r="AA21">
-        <v>9090</v>
+        <v>52</v>
       </c>
       <c r="AB21">
-        <v>16380571</v>
+        <v>178042</v>
       </c>
       <c r="AC21">
-        <v>25693973</v>
+        <v>295714</v>
       </c>
       <c r="AD21">
-        <v>323347</v>
+        <v>1769</v>
       </c>
       <c r="AE21">
-        <v>848577</v>
+        <v>2108.48834365752</v>
       </c>
       <c r="AF21">
-        <v>373</v>
+        <v>938.450998382142</v>
       </c>
       <c r="AG21">
-        <v>1161684</v>
+        <v>3772</v>
       </c>
       <c r="AH21">
-        <v>2904860</v>
+        <v>6793</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>54.9</v>
       </c>
       <c r="E22">
-        <v>34143.11449620128</v>
+        <v>34143.1144977659</v>
       </c>
       <c r="F22">
         <v>36936.1641</v>
@@ -2692,82 +2692,82 @@
         <v>74.79000000000001</v>
       </c>
       <c r="I22">
-        <v>2.587358101220161</v>
+        <v>2.587358101260179</v>
       </c>
       <c r="J22">
-        <v>2635.450253255665</v>
+        <v>2635.450253192335</v>
       </c>
       <c r="K22">
-        <v>18.08171192754526</v>
+        <v>18.08171192952432</v>
       </c>
       <c r="L22">
-        <v>0.4210952701819224</v>
+        <v>0.4210952701905626</v>
       </c>
       <c r="M22">
-        <v>2.946530961431563</v>
+        <v>2.946530969580635</v>
       </c>
       <c r="N22">
-        <v>269.8511093913112</v>
+        <v>269.851109390147</v>
       </c>
       <c r="O22">
-        <v>131.8974148500711</v>
+        <v>131.897414857056</v>
       </c>
       <c r="P22">
-        <v>1860.09043892111</v>
+        <v>1695.424446714427</v>
       </c>
       <c r="Q22">
-        <v>101.4228289474559</v>
+        <v>101.4228289491148</v>
       </c>
       <c r="R22">
-        <v>49.54117646603845</v>
+        <v>49.54117647430394</v>
       </c>
       <c r="S22">
         <v>1430886</v>
       </c>
       <c r="T22">
-        <v>207536.3362250798</v>
+        <v>111970.0172638217</v>
       </c>
       <c r="U22">
-        <v>0.6043934379683479</v>
+        <v>1.37820285861146</v>
       </c>
       <c r="V22">
-        <v>92.99894736404531</v>
+        <v>92.99894737126306</v>
       </c>
       <c r="W22">
-        <v>117.6388978672476</v>
+        <v>117.6388978669565</v>
       </c>
       <c r="X22">
-        <v>170338.9237604141</v>
+        <v>170338.923746109</v>
       </c>
       <c r="Y22">
-        <v>89.82313186605461</v>
+        <v>89.82313186590909</v>
       </c>
       <c r="Z22">
-        <v>219499.1029539108</v>
+        <v>219499.1029672623</v>
       </c>
       <c r="AA22">
-        <v>8621</v>
+        <v>59</v>
       </c>
       <c r="AB22">
-        <v>18354795.2</v>
+        <v>166836.6</v>
       </c>
       <c r="AC22">
-        <v>28339999.1</v>
+        <v>332065</v>
       </c>
       <c r="AD22">
-        <v>351610</v>
+        <v>2161</v>
       </c>
       <c r="AE22">
-        <v>230483.7</v>
+        <v>1110.38492335606</v>
       </c>
       <c r="AF22">
-        <v>627.6</v>
+        <v>736.722353691012</v>
       </c>
       <c r="AG22">
-        <v>1093151.5</v>
+        <v>1921.4</v>
       </c>
       <c r="AH22">
-        <v>2550417.3</v>
+        <v>8927.6</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2784,94 +2784,94 @@
         <v>55.8</v>
       </c>
       <c r="E23">
-        <v>35132.01365612447</v>
+        <v>35132.01365786791</v>
       </c>
       <c r="F23">
-        <v>39957.51530791819</v>
+        <v>39957.51530817151</v>
       </c>
       <c r="G23">
         <v>2.76</v>
       </c>
       <c r="H23">
-        <v>75.75894607840746</v>
+        <v>75.75894607861119</v>
       </c>
       <c r="I23">
-        <v>2.652425180698629</v>
+        <v>2.652425180745922</v>
       </c>
       <c r="J23">
-        <v>2910.080467939377</v>
+        <v>2910.080467864871</v>
       </c>
       <c r="K23">
-        <v>19.96427890611812</v>
+        <v>19.96427890833002</v>
       </c>
       <c r="L23">
-        <v>0.4283058328232983</v>
+        <v>0.428305832832848</v>
       </c>
       <c r="M23">
-        <v>4.579909354215488</v>
+        <v>4.579909363295883</v>
       </c>
       <c r="N23">
-        <v>277.9594943246339</v>
+        <v>277.9594943227712</v>
       </c>
       <c r="O23">
-        <v>151.1942105139606</v>
+        <v>151.1942105218768</v>
       </c>
       <c r="P23">
-        <v>2202.648196915646</v>
+        <v>1424.465232737196</v>
       </c>
       <c r="Q23">
-        <v>101.5234958722722</v>
+        <v>101.5234958740766</v>
       </c>
       <c r="R23">
-        <v>56.30269607249647</v>
+        <v>56.30269608215895</v>
       </c>
       <c r="S23">
-        <v>1510215.876220703</v>
+        <v>1510215.876263618</v>
       </c>
       <c r="T23">
-        <v>260420.9552094377</v>
+        <v>223924.6454849587</v>
       </c>
       <c r="U23">
-        <v>0.6928378347135654</v>
+        <v>1.281663103004134</v>
       </c>
       <c r="V23">
-        <v>90.23445613612421</v>
+        <v>90.23445614404045</v>
       </c>
       <c r="W23">
-        <v>121.352578862774</v>
+        <v>121.3525788624756</v>
       </c>
       <c r="X23">
-        <v>195259.771668911</v>
+        <v>195259.7716536522</v>
       </c>
       <c r="Y23">
-        <v>92.9352609863563</v>
+        <v>92.93526098606526</v>
       </c>
       <c r="Z23">
-        <v>211320.8258619308</v>
+        <v>211320.825879097</v>
       </c>
       <c r="AA23">
-        <v>10909.79545478523</v>
+        <v>70.31024805597642</v>
       </c>
       <c r="AB23">
-        <v>19959475.21875</v>
+        <v>179359.3113737106</v>
       </c>
       <c r="AC23">
-        <v>32239290.79736328</v>
+        <v>366184.3932189941</v>
       </c>
       <c r="AD23">
-        <v>393799.7954621315</v>
+        <v>2287.772727359086</v>
       </c>
       <c r="AE23">
-        <v>681892.0089187622</v>
+        <v>1442.818720506857</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1690.381760926875</v>
       </c>
       <c r="AG23">
-        <v>1646322.467990875</v>
+        <v>4595.34723715594</v>
       </c>
       <c r="AH23">
-        <v>3604299.818359375</v>
+        <v>-502.4931764006615</v>
       </c>
     </row>
   </sheetData>
